--- a/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2007 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1481,7 +1481,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2012 (tasa de respuesta: 99,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2406,7 +2406,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3299,7 +3299,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres que han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
+          <t>Mujeres según si han consumido hormonas para la menopausia en las dos últimas semanas en 2023 (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Provincia-trans_orig.xlsx
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6701</v>
+        <v>6169</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007779814396958192</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02569218069630085</v>
+        <v>0.02365109895520066</v>
       </c>
     </row>
     <row r="5">
@@ -653,7 +653,7 @@
         <v>258809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254137</v>
+        <v>254669</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>260838</v>
@@ -662,7 +662,7 @@
         <v>0.9922201856030418</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.974307819303698</v>
+        <v>0.9763489010447992</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -715,19 +715,19 @@
         <v>3144</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9143</v>
+        <v>8776</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006238112272024506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001936116860912795</v>
+        <v>0.00193798605120725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0181422830022319</v>
+        <v>0.01741422823522675</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>500805</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494806</v>
+        <v>495173</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>502973</v>
+        <v>502972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9937618877279755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9818577169977694</v>
+        <v>0.9825857717647731</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980638831390872</v>
+        <v>0.9980620139487928</v>
       </c>
     </row>
     <row r="9">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5062</v>
+        <v>5603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003004054273883178</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01509333723229195</v>
+        <v>0.01670586943820311</v>
       </c>
     </row>
     <row r="11">
@@ -835,7 +835,7 @@
         <v>334404</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>330350</v>
+        <v>329809</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>335412</v>
@@ -844,7 +844,7 @@
         <v>0.9969959457261168</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9849066627677079</v>
+        <v>0.9832941305617959</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -897,19 +897,19 @@
         <v>3558</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8920</v>
+        <v>8146</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009600647896235236</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002476257095297863</v>
+        <v>0.002465164268509841</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02406880670154162</v>
+        <v>0.02198172617197721</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>367034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361672</v>
+        <v>362446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369674</v>
+        <v>369678</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9903993521037647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9759311932984583</v>
+        <v>0.9780182738280228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975237429047021</v>
+        <v>0.9975348357314902</v>
       </c>
     </row>
     <row r="15">
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5636</v>
+        <v>5056</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004911138190711945</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02726841146951109</v>
+        <v>0.02446183653026261</v>
       </c>
     </row>
     <row r="17">
@@ -1017,7 +1017,7 @@
         <v>205659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201038</v>
+        <v>201618</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>206674</v>
@@ -1026,7 +1026,7 @@
         <v>0.995088861809288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9727315885304886</v>
+        <v>0.9755381634697373</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1079,19 +1079,19 @@
         <v>4122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>999</v>
+        <v>1219</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9613</v>
+        <v>10085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01481997103454048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003592318140405324</v>
+        <v>0.004382590570395178</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03456031543217981</v>
+        <v>0.03625734816046021</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>274022</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268531</v>
+        <v>268059</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>277145</v>
+        <v>276925</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9851800289654595</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9654396845678203</v>
+        <v>0.9637426518395392</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9964076818595947</v>
+        <v>0.9956174094296047</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>4837</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1912</v>
+        <v>1899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11021</v>
+        <v>10653</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00757927503842966</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002995414834480711</v>
+        <v>0.002975279680507917</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0172676033410939</v>
+        <v>0.01669125820548942</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>633382</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>627198</v>
+        <v>627566</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>636307</v>
+        <v>636320</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9924207249615703</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9827323966589057</v>
+        <v>0.9833087417945106</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9970045851655193</v>
+        <v>0.9970247203194921</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>4376</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1149</v>
+        <v>1418</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10683</v>
+        <v>11151</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005584645903700754</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001465908933398905</v>
+        <v>0.001810265934453721</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01363436873721226</v>
+        <v>0.01423208508357831</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>779135</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>772828</v>
+        <v>772360</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>782362</v>
+        <v>782093</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9944153540962992</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9863656312627878</v>
+        <v>0.9857679149164217</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9985340910666011</v>
+        <v>0.9981897340655463</v>
       </c>
     </row>
     <row r="27">
@@ -1352,19 +1352,19 @@
         <v>24088</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.00713237311627108</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
     </row>
     <row r="29">
@@ -1381,19 +1381,19 @@
         <v>3353251</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3342217</v>
+        <v>3342763</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3361263</v>
+        <v>3361595</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9928676268837289</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9896007204527161</v>
+        <v>0.9897624729774087</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9952401725568478</v>
+        <v>0.9953383934693538</v>
       </c>
     </row>
     <row r="30">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5359</v>
+        <v>5699</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004028685633260805</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0191824309918938</v>
+        <v>0.02040128744663322</v>
       </c>
     </row>
     <row r="5">
@@ -1594,7 +1594,7 @@
         <v>278225</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273991</v>
+        <v>273651</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>279350</v>
@@ -1603,7 +1603,7 @@
         <v>0.9959713143667392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.980817569008106</v>
+        <v>0.9795987125533667</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10744</v>
+        <v>11550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005716324601067892</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02067329002124225</v>
+        <v>0.02222477052393684</v>
       </c>
     </row>
     <row r="8">
@@ -1685,7 +1685,7 @@
         <v>516733</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>508960</v>
+        <v>508154</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>519704</v>
@@ -1694,7 +1694,7 @@
         <v>0.9942836753989321</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9793267099787589</v>
+        <v>0.9777752294760649</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1747,19 +1747,19 @@
         <v>3145</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8471</v>
+        <v>8495</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009280374800939474</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003026035224681236</v>
+        <v>0.003022541204639679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02499762666824021</v>
+        <v>0.02506823449756798</v>
       </c>
     </row>
     <row r="11">
@@ -1776,19 +1776,19 @@
         <v>335714</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>330388</v>
+        <v>330364</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>337834</v>
+        <v>337835</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9907196251990605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9750023733317598</v>
+        <v>0.974931765502432</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969739647753189</v>
+        <v>0.9969774587953604</v>
       </c>
     </row>
     <row r="12">
@@ -1838,19 +1838,19 @@
         <v>3180</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9124</v>
+        <v>8546</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008195525587220035</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00234606247359852</v>
+        <v>0.002327903061291493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02351789111296557</v>
+        <v>0.02202708081137205</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +1867,19 @@
         <v>384794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>378850</v>
+        <v>379428</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>387064</v>
+        <v>387071</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.99180447441278</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9764821088870345</v>
+        <v>0.9779729191886279</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9976539375264014</v>
+        <v>0.9976720969387085</v>
       </c>
     </row>
     <row r="15">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5798</v>
+        <v>6701</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00687134391193071</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02077011300388541</v>
+        <v>0.02400494718583333</v>
       </c>
     </row>
     <row r="20">
@@ -2033,7 +2033,7 @@
         <v>277222</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>273342</v>
+        <v>272439</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>279140</v>
@@ -2042,7 +2042,7 @@
         <v>0.9931286560880693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9792298869961146</v>
+        <v>0.9759950528141668</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -2095,19 +2095,19 @@
         <v>4000</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12549</v>
+        <v>12692</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005782971559425408</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001469503024192954</v>
+        <v>0.001463951818524047</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0181413408108374</v>
+        <v>0.01834740715429857</v>
       </c>
     </row>
     <row r="23">
@@ -2124,19 +2124,19 @@
         <v>687755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>679206</v>
+        <v>679063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>690738</v>
+        <v>690742</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9942170284405746</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9818586591891648</v>
+        <v>0.9816525928457009</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9985304969758071</v>
+        <v>0.998536048181476</v>
       </c>
     </row>
     <row r="24">
@@ -2186,19 +2186,19 @@
         <v>5351</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11701</v>
+        <v>11936</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006521506382370496</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002549500294740341</v>
+        <v>0.002542866608237609</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01425964013729615</v>
+        <v>0.01454588453504188</v>
       </c>
     </row>
     <row r="26">
@@ -2215,19 +2215,19 @@
         <v>815203</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>808853</v>
+        <v>808618</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>818462</v>
+        <v>818467</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9934784936176295</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9857403598627039</v>
+        <v>0.9854541154649581</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9974504997052597</v>
+        <v>0.9974571333917625</v>
       </c>
     </row>
     <row r="27">
@@ -2277,19 +2277,19 @@
         <v>21690</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13520</v>
+        <v>13543</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>33865</v>
+        <v>34745</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006134251475637478</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003823710410201663</v>
+        <v>0.003830045090362292</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009577382402697163</v>
+        <v>0.009826329673771079</v>
       </c>
     </row>
     <row r="29">
@@ -2306,19 +2306,19 @@
         <v>3514246</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3502071</v>
+        <v>3501191</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3522416</v>
+        <v>3522393</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9938657485243625</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9904226175973027</v>
+        <v>0.9901736703262288</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9961762895897983</v>
+        <v>0.9961699549096376</v>
       </c>
     </row>
     <row r="30">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5170</v>
+        <v>4832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003512828278542308</v>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01790741409908274</v>
+        <v>0.0167363125564996</v>
       </c>
     </row>
     <row r="5">
@@ -2519,7 +2519,7 @@
         <v>287689</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>283533</v>
+        <v>283871</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>288703</v>
@@ -2528,7 +2528,7 @@
         <v>0.9964871717214577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9820925859009171</v>
+        <v>0.9832636874435</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2581,19 +2581,19 @@
         <v>4244</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1162</v>
+        <v>1084</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10815</v>
+        <v>9981</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008113572400499624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00222225650260925</v>
+        <v>0.002072858496503949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02067515444663555</v>
+        <v>0.01908038564837801</v>
       </c>
     </row>
     <row r="8">
@@ -2610,19 +2610,19 @@
         <v>518840</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>512269</v>
+        <v>513103</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521922</v>
+        <v>522000</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9918864275995004</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9793248455533647</v>
+        <v>0.9809196143516226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977777434973908</v>
+        <v>0.997927141503496</v>
       </c>
     </row>
     <row r="9">
@@ -2822,19 +2822,19 @@
         <v>3657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8976</v>
+        <v>8321</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01673109980665722</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004022100174861323</v>
+        <v>0.003985662416673134</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04106220173182427</v>
+        <v>0.03806732572140427</v>
       </c>
     </row>
     <row r="17">
@@ -2851,19 +2851,19 @@
         <v>214930</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>209611</v>
+        <v>210266</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>217708</v>
+        <v>217716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9832689001933428</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9589377982681766</v>
+        <v>0.9619326742785963</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9959778998251387</v>
+        <v>0.9960143375833269</v>
       </c>
     </row>
     <row r="18">
@@ -2988,19 +2988,19 @@
         <v>5869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2204</v>
+        <v>2135</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13227</v>
+        <v>12347</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.008489273882300865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003187632843858281</v>
+        <v>0.003088181492133237</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01913382279063584</v>
+        <v>0.01786073840149596</v>
       </c>
     </row>
     <row r="23">
@@ -3017,19 +3017,19 @@
         <v>685425</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>678067</v>
+        <v>678947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>689090</v>
+        <v>689159</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9915107261176991</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9808661772093642</v>
+        <v>0.982139261598504</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9968123671561417</v>
+        <v>0.9969118185078668</v>
       </c>
     </row>
     <row r="24">
@@ -3079,19 +3079,19 @@
         <v>3304</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8960</v>
+        <v>8870</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003999259542915603</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001284414829924612</v>
+        <v>0.001280776041667435</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01084524195189979</v>
+        <v>0.01073646764859399</v>
       </c>
     </row>
     <row r="26">
@@ -3108,19 +3108,19 @@
         <v>822863</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>817207</v>
+        <v>817297</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>825106</v>
+        <v>825109</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9960007404570844</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9891547580481003</v>
+        <v>0.989263532351406</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9987155851700754</v>
+        <v>0.9987192239583326</v>
       </c>
     </row>
     <row r="27">
@@ -3170,19 +3170,19 @@
         <v>18088</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11189</v>
+        <v>11466</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>28685</v>
+        <v>28688</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.005103081089591228</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003156631739726414</v>
+        <v>0.003234752368892207</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.008092683746887307</v>
+        <v>0.008093564605366345</v>
       </c>
     </row>
     <row r="29">
@@ -3199,19 +3199,19 @@
         <v>3526454</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3515857</v>
+        <v>3515854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3533353</v>
+        <v>3533076</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9948969189104088</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.991907316253112</v>
+        <v>0.9919064353946335</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9968433682602735</v>
+        <v>0.9967652476311077</v>
       </c>
     </row>
     <row r="30">
@@ -3383,19 +3383,19 @@
         <v>1461</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4243</v>
+        <v>4639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004621341691417721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001491976458654096</v>
+        <v>0.0014817868425393</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01342571165153407</v>
+        <v>0.01467882624005174</v>
       </c>
     </row>
     <row r="5">
@@ -3412,19 +3412,19 @@
         <v>314600</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>311818</v>
+        <v>311422</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>315589</v>
+        <v>315593</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9953786583085824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9865742883484653</v>
+        <v>0.9853211737599485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9985080235413459</v>
+        <v>0.9985182131574605</v>
       </c>
     </row>
     <row r="6">
@@ -3474,19 +3474,19 @@
         <v>2842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6463</v>
+        <v>6431</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005226509608858228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001319509458199829</v>
+        <v>0.001315147473811337</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01188558090205175</v>
+        <v>0.01182828000415554</v>
       </c>
     </row>
     <row r="8">
@@ -3503,19 +3503,19 @@
         <v>540890</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>537269</v>
+        <v>537301</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>543015</v>
+        <v>543017</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9947734903911418</v>
+        <v>0.9947734903911417</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9881144190979482</v>
+        <v>0.9881717199958444</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9986804905418002</v>
+        <v>0.9986848525261887</v>
       </c>
     </row>
     <row r="9">
@@ -3568,16 +3568,16 @@
         <v>556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5076</v>
+        <v>4863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005102197090082716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001564343445525241</v>
+        <v>0.001563539310945813</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01426909390417416</v>
+        <v>0.01367075566014984</v>
       </c>
     </row>
     <row r="11">
@@ -3594,7 +3594,7 @@
         <v>353922</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>350661</v>
+        <v>350874</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>355181</v>
@@ -3603,10 +3603,10 @@
         <v>0.9948978029099175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9857309060958261</v>
+        <v>0.9863292443398501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984356565544746</v>
+        <v>0.9984364606890542</v>
       </c>
     </row>
     <row r="12">
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3650</v>
+        <v>3224</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001500173572595208</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.008662631643971793</v>
+        <v>0.007651800800573997</v>
       </c>
     </row>
     <row r="14">
@@ -3685,7 +3685,7 @@
         <v>420697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>417679</v>
+        <v>418105</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>421329</v>
@@ -3694,7 +3694,7 @@
         <v>0.9984998264274048</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9913373683560286</v>
+        <v>0.9923481991994261</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3750,16 +3750,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2783</v>
+        <v>2963</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.003599302962604131</v>
+        <v>0.00359930296260413</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0122698923215041</v>
+        <v>0.01306126687003215</v>
       </c>
     </row>
     <row r="17">
@@ -3776,16 +3776,16 @@
         <v>226020</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>224053</v>
+        <v>223873</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>226836</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.996400697037396</v>
+        <v>0.9964006970373959</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9877301076784959</v>
+        <v>0.986938733129968</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2800</v>
+        <v>3475</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002294348706305422</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01061720838355384</v>
+        <v>0.01317415736004011</v>
       </c>
     </row>
     <row r="20">
@@ -3867,16 +3867,16 @@
         <v>263145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260950</v>
+        <v>260275</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263750</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9977056512936948</v>
+        <v>0.9977056512936944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9893827916164457</v>
+        <v>0.9868258426399603</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -3929,19 +3929,19 @@
         <v>5474</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2057</v>
+        <v>2311</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10456</v>
+        <v>10705</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.007104379194487124</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002669302532850443</v>
+        <v>0.002999787012768799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01356931306186288</v>
+        <v>0.01389274265977877</v>
       </c>
     </row>
     <row r="23">
@@ -3958,19 +3958,19 @@
         <v>765069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>760087</v>
+        <v>759838</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>768486</v>
+        <v>768232</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9928956208055127</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9864306869381366</v>
+        <v>0.9861072573402212</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9973306974671496</v>
+        <v>0.997000212987231</v>
       </c>
     </row>
     <row r="24">
@@ -4020,19 +4020,19 @@
         <v>4591</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2252</v>
+        <v>1525</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>9275</v>
+        <v>9581</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00553141958717555</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002713047710688256</v>
+        <v>0.001837413555399574</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01117481770617996</v>
+        <v>0.0115430952471658</v>
       </c>
     </row>
     <row r="26">
@@ -4049,19 +4049,19 @@
         <v>825415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>820731</v>
+        <v>820425</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>827754</v>
+        <v>828481</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9944685804128245</v>
+        <v>0.9944685804128247</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9888251822938202</v>
+        <v>0.9884569047528355</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9972869522893117</v>
+        <v>0.9981625864446005</v>
       </c>
     </row>
     <row r="27">
@@ -4111,19 +4111,19 @@
         <v>18236</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11918</v>
+        <v>12378</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>25928</v>
+        <v>26706</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.004891766763541077</v>
+        <v>0.004891766763541078</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003196981177204124</v>
+        <v>0.003320410546481231</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006954841523604654</v>
+        <v>0.007163629539770858</v>
       </c>
     </row>
     <row r="29">
@@ -4140,19 +4140,19 @@
         <v>3709758</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3702066</v>
+        <v>3701288</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3716076</v>
+        <v>3715616</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.995108233236459</v>
+        <v>0.9951082332364589</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9930451584763953</v>
+        <v>0.9928363704602292</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9968030188227959</v>
+        <v>0.9966795894535189</v>
       </c>
     </row>
     <row r="30">
